--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_20_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390714.3755850563</v>
+        <v>271586.8746997663</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14015837.94718544</v>
+        <v>13813720.44731585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20799142.37910257</v>
+        <v>20597024.87923298</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3755438.418690238</v>
+        <v>3870940.577263528</v>
       </c>
     </row>
     <row r="11">
@@ -1375,58 +1375,58 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>94.1816768237789</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F11" t="n">
-        <v>75.27752168542789</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="H11" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="I11" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18.90415513835094</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.648220960735628</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R12" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.927426003382</v>
+        <v>84.53345586304322</v>
       </c>
       <c r="T12" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>4.187192528432066</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.920986145532318</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>75.27752168542794</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="I14" t="n">
+      <c r="W14" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18.90415513835094</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.648220960735628</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R15" t="n">
-        <v>80.34626333461114</v>
+        <v>33.00372673083748</v>
       </c>
       <c r="S15" t="n">
         <v>106.927426003382</v>
@@ -1745,13 +1745,13 @@
         <v>106.927426003382</v>
       </c>
       <c r="V15" t="n">
-        <v>4.187192528432116</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>51.5297291322058</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.920986145532318</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F17" t="n">
-        <v>75.277521685428</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G17" t="n">
-        <v>106.927426003382</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="H17" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>18.90415513835092</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1967,31 +1967,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.6482209607356</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.34626333461112</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="V18" t="n">
-        <v>4.187192528432116</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
     </row>
     <row r="19">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.92098614553236</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.20651604452286</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>106.9274260033821</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V20" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W20" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="Y20" t="n">
-        <v>77.97516077925611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>63.99962299316287</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>106.9274260033821</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8662920711142</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.82435043165499</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.34626333461111</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.920986145532374</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,59 +2317,59 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="E23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>25.19731033681387</v>
+      </c>
+      <c r="S23" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>94.1816768237789</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>68.9843664869648</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,76 +2396,76 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>94.18167682377884</v>
+      </c>
+      <c r="W24" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="V24" t="n">
+      <c r="Y24" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="W24" t="n">
-        <v>94.1816768237789</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>16.20651604452291</v>
+      </c>
+      <c r="R26" t="n">
+        <v>25.19731033681387</v>
+      </c>
+      <c r="S26" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>106.927426003382</v>
+        <v>52.7778504424419</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="Y26" t="n">
-        <v>94.18167682377873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>84.53345586304329</v>
       </c>
       <c r="G27" t="n">
-        <v>4.187192528432116</v>
+        <v>106.927426003382</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>9.648220960735614</v>
       </c>
       <c r="R27" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2727,49 +2727,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.920986145532346</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>106.927426003382</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U29" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>94.18167682377873</v>
+        <v>94.18167682377869</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>100.2428107560467</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.8662920711142</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U30" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="V30" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,49 +2964,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.920986145532346</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.97516077925599</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.639289819063057</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.20651604452291</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W32" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G33" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="V33" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.920986145532323</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>77.975160779256</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>16.20651604452291</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C35" t="n">
+      <c r="V35" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>94.1816768237789</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="G37" t="n">
-        <v>2.920986145532323</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3505,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>94.18167682377884</v>
+        <v>106.927426003382</v>
       </c>
       <c r="D38" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>94.18167682377862</v>
+      </c>
+      <c r="X38" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="F38" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>94.1816768237789</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F39" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="G39" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3641,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,61 +3745,61 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>93.54238700471561</v>
+      </c>
+      <c r="S41" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="F41" t="n">
+      <c r="T41" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V41" t="n">
-        <v>106.927426003382</v>
+        <v>0.6392898190632822</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,70 +3821,70 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="D42" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>9.648220960735614</v>
-      </c>
-      <c r="R42" t="n">
-        <v>80.34626333461114</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>4.187192528432075</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6392898190632822</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U44" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W44" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="E45" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>13.83541348916775</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="C11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="D11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E11" t="n">
-        <v>427.7097040135279</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F11" t="n">
-        <v>351.6718033211765</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G11" t="n">
-        <v>243.6643023076593</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H11" t="n">
-        <v>135.6568012941422</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I11" t="n">
-        <v>27.64930028062505</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J11" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K11" t="n">
-        <v>29.97514549595309</v>
+        <v>29.97514549595313</v>
       </c>
       <c r="L11" t="n">
-        <v>92.52894770869227</v>
+        <v>92.52894770869237</v>
       </c>
       <c r="M11" t="n">
-        <v>193.0098070056914</v>
+        <v>193.0098070056917</v>
       </c>
       <c r="N11" t="n">
-        <v>298.8679587490397</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O11" t="n">
-        <v>386.530353808742</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P11" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q11" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R11" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S11" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T11" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="W11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="X11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
       <c r="Y11" t="n">
-        <v>427.7097040135279</v>
+        <v>319.702203000011</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="C12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="D12" t="n">
-        <v>8.554194080270557</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E12" t="n">
-        <v>8.554194080270557</v>
+        <v>224.569196107305</v>
       </c>
       <c r="F12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="G12" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H12" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I12" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J12" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K12" t="n">
-        <v>34.34521432379854</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L12" t="n">
-        <v>114.1889014770819</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M12" t="n">
-        <v>220.04705322043</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N12" t="n">
-        <v>325.9052049637781</v>
+        <v>272.788034777308</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1890943922168</v>
+        <v>369.189094392217</v>
       </c>
       <c r="P12" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q12" t="n">
-        <v>417.9640262754111</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="R12" t="n">
-        <v>336.8061845232786</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="S12" t="n">
-        <v>228.7986835097615</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="T12" t="n">
-        <v>120.7911824962443</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="U12" t="n">
-        <v>12.78368148272719</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="V12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="W12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="X12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.554194080270557</v>
+        <v>332.5766971208222</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M13" t="n">
-        <v>8.554194080270557</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N13" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O13" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P13" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="S13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="T13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="U13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>427.7097040135282</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C14" t="n">
-        <v>427.7097040135282</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D14" t="n">
-        <v>427.7097040135282</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E14" t="n">
-        <v>427.7097040135282</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F14" t="n">
-        <v>351.6718033211767</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G14" t="n">
-        <v>243.6643023076595</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H14" t="n">
-        <v>135.6568012941423</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I14" t="n">
-        <v>27.64930028062505</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J14" t="n">
         <v>8.554194080270562</v>
       </c>
       <c r="K14" t="n">
-        <v>29.97514549595307</v>
+        <v>29.97514549595313</v>
       </c>
       <c r="L14" t="n">
-        <v>92.52894770869226</v>
+        <v>92.52894770869237</v>
       </c>
       <c r="M14" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056917</v>
       </c>
       <c r="N14" t="n">
-        <v>298.86795874904</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O14" t="n">
         <v>386.5303538087423</v>
@@ -5311,19 +5311,19 @@
         <v>427.7097040135282</v>
       </c>
       <c r="U14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V14" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="W14" t="n">
-        <v>427.7097040135282</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="X14" t="n">
-        <v>427.7097040135282</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="Y14" t="n">
-        <v>427.7097040135282</v>
+        <v>103.6872009729765</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K15" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L15" t="n">
-        <v>88.39788123355392</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2560329769021</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N15" t="n">
-        <v>300.1141847202504</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O15" t="n">
-        <v>369.189094392217</v>
+        <v>422.3062645786874</v>
       </c>
       <c r="P15" t="n">
         <v>427.7097040135282</v>
@@ -5381,22 +5381,22 @@
         <v>417.9640262754114</v>
       </c>
       <c r="R15" t="n">
-        <v>336.8061845232789</v>
+        <v>384.6269285674947</v>
       </c>
       <c r="S15" t="n">
-        <v>228.7986835097617</v>
+        <v>276.6194275539775</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7911824962445</v>
+        <v>168.6119265404603</v>
       </c>
       <c r="U15" t="n">
-        <v>12.78368148272725</v>
+        <v>60.60442552694309</v>
       </c>
       <c r="V15" t="n">
-        <v>8.554194080270562</v>
+        <v>60.60442552694309</v>
       </c>
       <c r="W15" t="n">
-        <v>8.554194080270562</v>
+        <v>60.60442552694309</v>
       </c>
       <c r="X15" t="n">
         <v>8.554194080270562</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="G16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M16" t="n">
         <v>8.554194080270562</v>
       </c>
       <c r="N16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.50468513636381</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="C17" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="D17" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="E17" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="F17" t="n">
-        <v>351.6718033211766</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="G17" t="n">
-        <v>243.6643023076595</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H17" t="n">
-        <v>135.6568012941422</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I17" t="n">
-        <v>27.64930028062502</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J17" t="n">
         <v>8.554194080270562</v>
       </c>
       <c r="K17" t="n">
-        <v>29.97514549595307</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L17" t="n">
-        <v>92.52894770869237</v>
+        <v>92.52894770869239</v>
       </c>
       <c r="M17" t="n">
         <v>193.0098070056916</v>
       </c>
       <c r="N17" t="n">
-        <v>298.8679587490398</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O17" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P17" t="n">
         <v>427.7097040135282</v>
@@ -5597,16 +5597,16 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K18" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L18" t="n">
-        <v>88.39788123355397</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M18" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N18" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O18" t="n">
         <v>369.189094392217</v>
@@ -5615,28 +5615,28 @@
         <v>427.7097040135282</v>
       </c>
       <c r="Q18" t="n">
-        <v>417.9640262754114</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R18" t="n">
-        <v>336.8061845232789</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S18" t="n">
-        <v>228.7986835097617</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T18" t="n">
-        <v>120.7911824962445</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U18" t="n">
-        <v>12.78368148272725</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V18" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="W18" t="n">
-        <v>8.554194080270562</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="X18" t="n">
-        <v>8.554194080270562</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="Y18" t="n">
         <v>8.554194080270562</v>
@@ -5685,16 +5685,16 @@
         <v>8.554194080270562</v>
       </c>
       <c r="N19" t="n">
-        <v>11.50468513636386</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R19" t="n">
         <v>8.554194080270562</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K20" t="n">
-        <v>29.9751454959532</v>
+        <v>29.97514549595313</v>
       </c>
       <c r="L20" t="n">
-        <v>92.5289477086925</v>
+        <v>92.52894770869237</v>
       </c>
       <c r="M20" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056917</v>
       </c>
       <c r="N20" t="n">
-        <v>298.8679587490401</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O20" t="n">
-        <v>386.5303538087425</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P20" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.3394857867376</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R20" t="n">
-        <v>411.3394857867376</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3394857867376</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T20" t="n">
-        <v>303.3319847732204</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U20" t="n">
-        <v>303.3319847732204</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V20" t="n">
-        <v>195.3244837597031</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="W20" t="n">
-        <v>87.31698274618583</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="X20" t="n">
-        <v>87.31698274618583</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>346.551862261396</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C21" t="n">
-        <v>346.551862261396</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D21" t="n">
-        <v>346.551862261396</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E21" t="n">
-        <v>346.551862261396</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F21" t="n">
-        <v>281.9057784299183</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8982774164011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H21" t="n">
-        <v>72.01313391022511</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I21" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J21" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K21" t="n">
-        <v>34.34521432379861</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L21" t="n">
-        <v>114.1889014770821</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M21" t="n">
-        <v>220.0470532204303</v>
+        <v>166.9298830339598</v>
       </c>
       <c r="N21" t="n">
-        <v>272.7880347773082</v>
+        <v>272.788034777308</v>
       </c>
       <c r="O21" t="n">
-        <v>369.1890943922172</v>
+        <v>369.189094392217</v>
       </c>
       <c r="P21" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q21" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R21" t="n">
-        <v>346.551862261396</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S21" t="n">
-        <v>346.551862261396</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T21" t="n">
-        <v>346.551862261396</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U21" t="n">
-        <v>346.551862261396</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V21" t="n">
-        <v>346.551862261396</v>
+        <v>319.702203000011</v>
       </c>
       <c r="W21" t="n">
-        <v>346.551862261396</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="X21" t="n">
-        <v>346.551862261396</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="Y21" t="n">
-        <v>346.551862261396</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W22" t="n">
-        <v>11.50468513636388</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X22" t="n">
-        <v>11.50468513636388</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.50468513636388</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>319.7022030000109</v>
+        <v>224.569196107305</v>
       </c>
       <c r="C23" t="n">
-        <v>319.7022030000109</v>
+        <v>224.569196107305</v>
       </c>
       <c r="D23" t="n">
-        <v>211.6947019864937</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E23" t="n">
-        <v>103.6872009729765</v>
+        <v>224.569196107305</v>
       </c>
       <c r="F23" t="n">
-        <v>103.6872009729765</v>
+        <v>224.569196107305</v>
       </c>
       <c r="G23" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="H23" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="I23" t="n">
         <v>8.554194080270562</v>
@@ -5992,49 +5992,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K23" t="n">
-        <v>29.97514549595309</v>
+        <v>29.97514549595304</v>
       </c>
       <c r="L23" t="n">
-        <v>92.52894770869233</v>
+        <v>92.52894770869227</v>
       </c>
       <c r="M23" t="n">
-        <v>193.0098070056916</v>
+        <v>193.0098070056915</v>
       </c>
       <c r="N23" t="n">
-        <v>298.8679587490399</v>
+        <v>298.8679587490398</v>
       </c>
       <c r="O23" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087421</v>
       </c>
       <c r="P23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Q23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="R23" t="n">
-        <v>427.7097040135281</v>
+        <v>402.2578753904836</v>
       </c>
       <c r="S23" t="n">
-        <v>427.7097040135281</v>
+        <v>294.2503743769664</v>
       </c>
       <c r="T23" t="n">
-        <v>427.7097040135281</v>
+        <v>294.2503743769664</v>
       </c>
       <c r="U23" t="n">
-        <v>427.7097040135281</v>
+        <v>294.2503743769664</v>
       </c>
       <c r="V23" t="n">
-        <v>427.7097040135281</v>
+        <v>224.569196107305</v>
       </c>
       <c r="W23" t="n">
-        <v>427.7097040135281</v>
+        <v>224.569196107305</v>
       </c>
       <c r="X23" t="n">
-        <v>427.7097040135281</v>
+        <v>224.569196107305</v>
       </c>
       <c r="Y23" t="n">
-        <v>427.7097040135281</v>
+        <v>224.569196107305</v>
       </c>
     </row>
     <row r="24">
@@ -6086,34 +6086,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U24" t="n">
-        <v>319.7022030000109</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V24" t="n">
-        <v>211.6947019864937</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="W24" t="n">
-        <v>116.5616950937878</v>
+        <v>224.569196107305</v>
       </c>
       <c r="X24" t="n">
         <v>116.5616950937878</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="25">
@@ -6135,10 +6135,10 @@
         <v>11.50468513636384</v>
       </c>
       <c r="F25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H25" t="n">
         <v>8.554194080270562</v>
@@ -6247,31 +6247,31 @@
         <v>427.7097040135279</v>
       </c>
       <c r="Q26" t="n">
-        <v>427.7097040135279</v>
+        <v>411.3394857867371</v>
       </c>
       <c r="R26" t="n">
-        <v>427.7097040135279</v>
+        <v>385.8876571636928</v>
       </c>
       <c r="S26" t="n">
-        <v>427.7097040135279</v>
+        <v>277.8801561501756</v>
       </c>
       <c r="T26" t="n">
-        <v>427.7097040135279</v>
+        <v>169.8726551366584</v>
       </c>
       <c r="U26" t="n">
-        <v>427.7097040135279</v>
+        <v>169.8726551366584</v>
       </c>
       <c r="V26" t="n">
-        <v>319.7022030000107</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="W26" t="n">
-        <v>319.7022030000107</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="X26" t="n">
-        <v>211.6947019864936</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.78368148272725</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="C27" t="n">
-        <v>12.78368148272725</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="D27" t="n">
-        <v>12.78368148272725</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="E27" t="n">
-        <v>12.78368148272725</v>
+        <v>201.949024248377</v>
       </c>
       <c r="F27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="G27" t="n">
         <v>8.554194080270562</v>
@@ -6308,49 +6308,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K27" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L27" t="n">
-        <v>88.39788123355395</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M27" t="n">
-        <v>194.2560329769021</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N27" t="n">
-        <v>300.1141847202504</v>
+        <v>272.788034777308</v>
       </c>
       <c r="O27" t="n">
         <v>369.189094392217</v>
       </c>
       <c r="P27" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q27" t="n">
-        <v>417.9640262754113</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="R27" t="n">
-        <v>336.8061845232788</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="S27" t="n">
-        <v>336.8061845232788</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="T27" t="n">
-        <v>336.8061845232788</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="U27" t="n">
-        <v>228.7986835097616</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="V27" t="n">
-        <v>228.7986835097616</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="W27" t="n">
-        <v>120.7911824962444</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="X27" t="n">
-        <v>12.78368148272725</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.78368148272725</v>
+        <v>309.9565252618942</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G28" t="n">
         <v>8.554194080270562</v>
@@ -6417,19 +6417,19 @@
         <v>11.50468513636384</v>
       </c>
       <c r="U28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="C29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="D29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="E29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F29" t="n">
         <v>116.5616950937878</v>
@@ -6490,25 +6490,25 @@
         <v>427.7097040135279</v>
       </c>
       <c r="S29" t="n">
-        <v>427.7097040135279</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="T29" t="n">
-        <v>427.7097040135279</v>
+        <v>211.6947019864935</v>
       </c>
       <c r="U29" t="n">
-        <v>319.7022030000107</v>
+        <v>211.6947019864935</v>
       </c>
       <c r="V29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="W29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="X29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.5691961073049</v>
+        <v>116.5616950937878</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="C30" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="D30" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="E30" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="F30" t="n">
-        <v>8.554194080270562</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="G30" t="n">
-        <v>8.554194080270562</v>
+        <v>110.4393375864465</v>
       </c>
       <c r="H30" t="n">
         <v>8.554194080270562</v>
@@ -6560,34 +6560,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P30" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q30" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R30" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S30" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T30" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
       <c r="U30" t="n">
-        <v>319.7022030000109</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="V30" t="n">
-        <v>211.6947019864937</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="W30" t="n">
-        <v>103.6872009729765</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="X30" t="n">
-        <v>103.6872009729765</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="Y30" t="n">
-        <v>103.6872009729765</v>
+        <v>211.6947019864938</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G31" t="n">
         <v>8.554194080270562</v>
@@ -6654,19 +6654,19 @@
         <v>11.50468513636384</v>
       </c>
       <c r="U31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="C32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="D32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="E32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="F32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="G32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="H32" t="n">
-        <v>8.554194080270562</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="I32" t="n">
         <v>8.554194080270562</v>
@@ -6703,49 +6703,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K32" t="n">
-        <v>29.97514549595303</v>
+        <v>29.97514549595304</v>
       </c>
       <c r="L32" t="n">
-        <v>92.52894770869248</v>
+        <v>92.52894770869227</v>
       </c>
       <c r="M32" t="n">
-        <v>193.0098070056917</v>
+        <v>193.0098070056915</v>
       </c>
       <c r="N32" t="n">
-        <v>298.8679587490399</v>
+        <v>298.8679587490398</v>
       </c>
       <c r="O32" t="n">
-        <v>386.5303538087423</v>
+        <v>386.5303538087421</v>
       </c>
       <c r="P32" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Q32" t="n">
-        <v>411.3394857867373</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="R32" t="n">
-        <v>411.3394857867373</v>
+        <v>333.2224444128051</v>
       </c>
       <c r="S32" t="n">
-        <v>411.3394857867373</v>
+        <v>225.2149433992879</v>
       </c>
       <c r="T32" t="n">
-        <v>411.3394857867373</v>
+        <v>225.2149433992879</v>
       </c>
       <c r="U32" t="n">
-        <v>411.3394857867373</v>
+        <v>117.2074423857707</v>
       </c>
       <c r="V32" t="n">
-        <v>411.3394857867373</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="W32" t="n">
-        <v>303.3319847732201</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="X32" t="n">
-        <v>195.3244837597029</v>
+        <v>9.199941372253448</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.3169827461857</v>
+        <v>9.199941372253448</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.5616950937878</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="C33" t="n">
-        <v>116.5616950937878</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="D33" t="n">
-        <v>116.5616950937878</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E33" t="n">
         <v>116.5616950937878</v>
       </c>
       <c r="F33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G33" t="n">
         <v>8.554194080270562</v>
@@ -6797,34 +6797,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U33" t="n">
-        <v>427.7097040135281</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="V33" t="n">
-        <v>319.7022030000109</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="W33" t="n">
-        <v>211.6947019864937</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="X33" t="n">
-        <v>116.5616950937878</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="Y33" t="n">
-        <v>116.5616950937878</v>
+        <v>332.5766971208222</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="U34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y34" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>211.6947019864937</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C35" t="n">
-        <v>103.6872009729765</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D35" t="n">
-        <v>103.6872009729765</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E35" t="n">
         <v>8.554194080270562</v>
@@ -6940,49 +6940,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K35" t="n">
-        <v>29.97514549595303</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L35" t="n">
-        <v>92.52894770869227</v>
+        <v>92.52894770869239</v>
       </c>
       <c r="M35" t="n">
-        <v>193.0098070056915</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N35" t="n">
         <v>298.8679587490399</v>
       </c>
       <c r="O35" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P35" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q35" t="n">
-        <v>427.7097040135281</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="R35" t="n">
-        <v>427.7097040135281</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="S35" t="n">
-        <v>427.7097040135281</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="T35" t="n">
-        <v>319.7022030000109</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="U35" t="n">
-        <v>319.7022030000109</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="V35" t="n">
-        <v>319.7022030000109</v>
+        <v>195.3244837597029</v>
       </c>
       <c r="W35" t="n">
-        <v>319.7022030000109</v>
+        <v>87.31698274618572</v>
       </c>
       <c r="X35" t="n">
-        <v>319.7022030000109</v>
+        <v>87.31698274618572</v>
       </c>
       <c r="Y35" t="n">
-        <v>319.7022030000109</v>
+        <v>87.31698274618572</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="C36" t="n">
-        <v>8.554194080270562</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="D36" t="n">
-        <v>8.554194080270562</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="E36" t="n">
-        <v>8.554194080270562</v>
+        <v>224.569196107305</v>
       </c>
       <c r="F36" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="G36" t="n">
         <v>8.554194080270562</v>
@@ -7025,7 +7025,7 @@
         <v>114.188901477082</v>
       </c>
       <c r="M36" t="n">
-        <v>220.0470532204302</v>
+        <v>166.9298830339598</v>
       </c>
       <c r="N36" t="n">
         <v>272.788034777308</v>
@@ -7034,34 +7034,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U36" t="n">
-        <v>319.7022030000109</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V36" t="n">
-        <v>211.6947019864937</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="X36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F37" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>427.7097040135282</v>
+        <v>224.569196107305</v>
       </c>
       <c r="C38" t="n">
-        <v>332.5766971208222</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="D38" t="n">
-        <v>224.569196107305</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E38" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F38" t="n">
         <v>8.554194080270562</v>
@@ -7213,13 +7213,13 @@
         <v>427.7097040135279</v>
       </c>
       <c r="W38" t="n">
-        <v>427.7097040135279</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="X38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="Y38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.702203000011</v>
+        <v>224.569196107305</v>
       </c>
       <c r="C39" t="n">
-        <v>319.702203000011</v>
+        <v>224.569196107305</v>
       </c>
       <c r="D39" t="n">
-        <v>319.702203000011</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E39" t="n">
-        <v>224.569196107305</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F39" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G39" t="n">
         <v>8.554194080270562</v>
@@ -7262,10 +7262,10 @@
         <v>114.188901477082</v>
       </c>
       <c r="M39" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N39" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O39" t="n">
         <v>369.189094392217</v>
@@ -7289,16 +7289,16 @@
         <v>427.7097040135282</v>
       </c>
       <c r="V39" t="n">
-        <v>319.702203000011</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W39" t="n">
-        <v>319.702203000011</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="X39" t="n">
-        <v>319.702203000011</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="Y39" t="n">
-        <v>319.702203000011</v>
+        <v>332.5766971208222</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="G40" t="n">
         <v>8.554194080270562</v>
@@ -7374,10 +7374,10 @@
         <v>11.50468513636384</v>
       </c>
       <c r="X40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D41" t="n">
-        <v>224.569196107305</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E41" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F41" t="n">
         <v>8.554194080270562</v>
@@ -7414,16 +7414,16 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K41" t="n">
-        <v>29.97514549595314</v>
+        <v>29.97514549595326</v>
       </c>
       <c r="L41" t="n">
-        <v>92.52894770869239</v>
+        <v>92.5289477086925</v>
       </c>
       <c r="M41" t="n">
-        <v>193.0098070056915</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N41" t="n">
-        <v>298.8679587490398</v>
+        <v>298.86795874904</v>
       </c>
       <c r="O41" t="n">
         <v>386.5303538087423</v>
@@ -7435,28 +7435,28 @@
         <v>427.7097040135282</v>
       </c>
       <c r="R41" t="n">
-        <v>427.7097040135282</v>
+        <v>333.2224444128053</v>
       </c>
       <c r="S41" t="n">
-        <v>427.7097040135282</v>
+        <v>225.2149433992881</v>
       </c>
       <c r="T41" t="n">
-        <v>427.7097040135282</v>
+        <v>117.2074423857709</v>
       </c>
       <c r="U41" t="n">
-        <v>427.7097040135282</v>
+        <v>9.199941372253676</v>
       </c>
       <c r="V41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.702203000011</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>224.569196107305</v>
+        <v>319.702203000011</v>
       </c>
       <c r="C42" t="n">
-        <v>224.569196107305</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="D42" t="n">
-        <v>116.5616950937878</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="E42" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F42" t="n">
         <v>8.554194080270562</v>
@@ -7499,7 +7499,7 @@
         <v>114.188901477082</v>
       </c>
       <c r="M42" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N42" t="n">
         <v>272.788034777308</v>
@@ -7511,31 +7511,31 @@
         <v>427.7097040135282</v>
       </c>
       <c r="Q42" t="n">
-        <v>417.9640262754114</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R42" t="n">
-        <v>336.8061845232789</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S42" t="n">
-        <v>336.8061845232789</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T42" t="n">
-        <v>336.8061845232789</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U42" t="n">
-        <v>332.5766971208222</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V42" t="n">
-        <v>332.5766971208222</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W42" t="n">
-        <v>224.569196107305</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="X42" t="n">
-        <v>224.569196107305</v>
+        <v>319.702203000011</v>
       </c>
       <c r="Y42" t="n">
-        <v>224.569196107305</v>
+        <v>319.702203000011</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>11.50468513636384</v>
       </c>
       <c r="U43" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V43" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W43" t="n">
         <v>8.554194080270562</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.199941372253676</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C44" t="n">
-        <v>9.199941372253676</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D44" t="n">
         <v>8.554194080270562</v>
@@ -7651,13 +7651,13 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K44" t="n">
-        <v>29.97514549595329</v>
+        <v>29.97514549595304</v>
       </c>
       <c r="L44" t="n">
-        <v>92.52894770869251</v>
+        <v>92.52894770869227</v>
       </c>
       <c r="M44" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056915</v>
       </c>
       <c r="N44" t="n">
         <v>298.86795874904</v>
@@ -7672,28 +7672,28 @@
         <v>427.7097040135282</v>
       </c>
       <c r="R44" t="n">
-        <v>333.2224444128053</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S44" t="n">
-        <v>333.2224444128053</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="T44" t="n">
-        <v>333.2224444128053</v>
+        <v>224.569196107305</v>
       </c>
       <c r="U44" t="n">
-        <v>225.2149433992881</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="V44" t="n">
-        <v>225.2149433992881</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W44" t="n">
-        <v>117.2074423857709</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X44" t="n">
-        <v>9.199941372253676</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.199941372253676</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.5443612478785</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="C45" t="n">
-        <v>238.5443612478785</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="D45" t="n">
-        <v>238.5443612478785</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5368602343613</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F45" t="n">
-        <v>22.52935922084404</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G45" t="n">
-        <v>22.52935922084404</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H45" t="n">
         <v>8.554194080270562</v>
@@ -7730,10 +7730,10 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K45" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L45" t="n">
-        <v>61.07173129061159</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M45" t="n">
         <v>166.9298830339598</v>
@@ -7751,28 +7751,28 @@
         <v>427.7097040135282</v>
       </c>
       <c r="R45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
       <c r="W45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
       <c r="X45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
       <c r="Y45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>11.50468513636384</v>
       </c>
       <c r="U46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W46" t="n">
         <v>8.554194080270562</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>81.37652493873003</v>
       </c>
       <c r="R2" t="n">
-        <v>131.4512948418814</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S2" t="n">
         <v>177.2992115582687</v>
@@ -22728,7 +22728,7 @@
         <v>136.8483930921292</v>
       </c>
       <c r="J4" t="n">
-        <v>84.06531662713587</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K4" t="n">
         <v>60.45788912455299</v>
@@ -22749,7 +22749,7 @@
         <v>66.27613257700894</v>
       </c>
       <c r="Q4" t="n">
-        <v>100.6316976953354</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R4" t="n">
         <v>148.1077074562735</v>
@@ -22810,7 +22810,7 @@
         <v>70.12451876312399</v>
       </c>
       <c r="K5" t="n">
-        <v>55.12872290169071</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L5" t="n">
         <v>32.04941132065568</v>
@@ -22910,7 +22910,7 @@
         <v>50.86548610568364</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3940782532438</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S6" t="n">
         <v>156.5032951430903</v>
@@ -22965,7 +22965,7 @@
         <v>136.8483930921292</v>
       </c>
       <c r="J7" t="n">
-        <v>84.06531662713587</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K7" t="n">
         <v>60.45788912455299</v>
@@ -22977,7 +22977,7 @@
         <v>47.308207565346</v>
       </c>
       <c r="N7" t="n">
-        <v>38.44485164535457</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>55.51535781714706</v>
@@ -22986,7 +22986,7 @@
         <v>66.27613257700894</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.6316976953354</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R7" t="n">
         <v>148.1077074562735</v>
@@ -23044,7 +23044,7 @@
         <v>156.8960271123767</v>
       </c>
       <c r="J8" t="n">
-        <v>70.12451876312399</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>55.12872290169068</v>
@@ -23202,7 +23202,7 @@
         <v>136.8483930921292</v>
       </c>
       <c r="J10" t="n">
-        <v>84.06531662713587</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K10" t="n">
         <v>60.45788912455299</v>
@@ -23223,7 +23223,7 @@
         <v>66.27613257700894</v>
       </c>
       <c r="Q10" t="n">
-        <v>100.6316976953354</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R10" t="n">
         <v>148.1077074562735</v>
@@ -23263,25 +23263,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>262.4230559308195</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>276.1906097519054</v>
       </c>
       <c r="F11" t="n">
-        <v>332.016341795113</v>
+        <v>300.3664374771588</v>
       </c>
       <c r="G11" t="n">
-        <v>306.0702799235769</v>
+        <v>412.9977059269589</v>
       </c>
       <c r="H11" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I11" t="n">
-        <v>26.70259638263278</v>
+        <v>133.6300223860147</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.20651604452294</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R11" t="n">
-        <v>93.54238700471562</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S11" t="n">
         <v>163.5472088943176</v>
@@ -23314,7 +23314,7 @@
         <v>214.835839336413</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23342,25 +23342,25 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>39.18499757126352</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0295957877706</v>
+        <v>28.10216978438859</v>
       </c>
       <c r="H12" t="n">
         <v>100.8662920711142</v>
       </c>
       <c r="I12" t="n">
-        <v>62.82435043165501</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J12" t="n">
-        <v>29.79191335767908</v>
+        <v>29.79191335767906</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S12" t="n">
-        <v>43.57823589723809</v>
+        <v>65.97220603757684</v>
       </c>
       <c r="T12" t="n">
-        <v>87.45014253000657</v>
+        <v>194.3775685333885</v>
       </c>
       <c r="U12" t="n">
-        <v>117.6643816942619</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V12" t="n">
-        <v>227.7215385112231</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23439,31 +23439,31 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J13" t="n">
-        <v>64.92652035474042</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K13" t="n">
-        <v>29.00696764310592</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L13" t="n">
-        <v>7.666252278545471</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M13" t="n">
-        <v>1.953086904587416</v>
+        <v>4.874073050119705</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2525309631925</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P13" t="n">
-        <v>33.5356740958531</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R13" t="n">
-        <v>135.9358563101673</v>
+        <v>133.014870164635</v>
       </c>
       <c r="S13" t="n">
         <v>207.8402631004476</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>289.5347331676161</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23506,19 +23506,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>332.0163417951129</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>306.0702799235768</v>
+        <v>412.9977059269589</v>
       </c>
       <c r="H14" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I14" t="n">
-        <v>26.70259638263269</v>
+        <v>133.6300223860147</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.20651604452294</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R14" t="n">
-        <v>93.54238700471562</v>
+        <v>25.19731033681387</v>
       </c>
       <c r="S14" t="n">
         <v>163.5472088943176</v>
@@ -23551,13 +23551,13 @@
         <v>214.835839336413</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>243.6026909971725</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -23594,10 +23594,10 @@
         <v>100.8662920711142</v>
       </c>
       <c r="I15" t="n">
-        <v>62.82435043165501</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J15" t="n">
-        <v>29.79191335767908</v>
+        <v>29.79191335767906</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.57823589723803</v>
+        <v>43.57823589723802</v>
       </c>
       <c r="T15" t="n">
         <v>87.4501425300065</v>
@@ -23633,13 +23633,13 @@
         <v>117.6643816942618</v>
       </c>
       <c r="V15" t="n">
-        <v>227.721538511223</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>152.9319004762725</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -23667,7 +23667,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.056575980339</v>
+        <v>164.1355898348067</v>
       </c>
       <c r="H16" t="n">
         <v>154.2278296009703</v>
@@ -23676,25 +23676,25 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J16" t="n">
-        <v>64.92652035474042</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K16" t="n">
-        <v>29.00696764310592</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L16" t="n">
-        <v>7.666252278545471</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M16" t="n">
-        <v>1.953086904587416</v>
+        <v>4.874073050119705</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2525309631925</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P16" t="n">
-        <v>33.5356740958531</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q16" t="n">
         <v>77.96390131304985</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>276.788983988013</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -23740,22 +23740,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>276.1906097519054</v>
       </c>
       <c r="F17" t="n">
-        <v>332.0163417951129</v>
+        <v>300.3664374771588</v>
       </c>
       <c r="G17" t="n">
-        <v>306.0702799235768</v>
+        <v>318.81602910318</v>
       </c>
       <c r="H17" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I17" t="n">
-        <v>26.70259638263269</v>
+        <v>133.6300223860147</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.20651604452289</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R17" t="n">
-        <v>93.54238700471559</v>
+        <v>25.19731033681387</v>
       </c>
       <c r="S17" t="n">
         <v>163.5472088943176</v>
@@ -23831,7 +23831,7 @@
         <v>100.8662920711142</v>
       </c>
       <c r="I18" t="n">
-        <v>62.82435043165499</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J18" t="n">
         <v>29.79191335767906</v>
@@ -23855,31 +23855,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S18" t="n">
-        <v>43.57823589723802</v>
+        <v>150.5056619006201</v>
       </c>
       <c r="T18" t="n">
-        <v>87.4501425300065</v>
+        <v>194.3775685333885</v>
       </c>
       <c r="U18" t="n">
         <v>117.6643816942618</v>
       </c>
       <c r="V18" t="n">
-        <v>227.721538511223</v>
+        <v>124.9813050362731</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>109.4894745948071</v>
       </c>
     </row>
     <row r="19">
@@ -23913,13 +23913,13 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J19" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K19" t="n">
-        <v>29.0069676431059</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L19" t="n">
-        <v>7.666252278545443</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M19" t="n">
         <v>4.874073050119705</v>
@@ -23928,16 +23928,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>14.3315448176601</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P19" t="n">
-        <v>33.53567409585307</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.96390131304983</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R19" t="n">
-        <v>135.9358563101673</v>
+        <v>133.014870164635</v>
       </c>
       <c r="S19" t="n">
         <v>207.8402631004476</v>
@@ -23992,7 +23992,7 @@
         <v>133.6300223860147</v>
       </c>
       <c r="J20" t="n">
-        <v>18.90415513835089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R20" t="n">
-        <v>93.54238700471558</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S20" t="n">
         <v>163.5472088943176</v>
       </c>
       <c r="T20" t="n">
-        <v>107.9084133330309</v>
+        <v>214.835839336413</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V20" t="n">
-        <v>221.6057955191372</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W20" t="n">
         <v>243.6026909971725</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>276.6799223073905</v>
       </c>
       <c r="Y20" t="n">
-        <v>308.7119109719797</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24059,19 +24059,19 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>79.50660909038642</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>28.10216978438855</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.8662920711142</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J21" t="n">
-        <v>29.79191335767905</v>
+        <v>29.79191335767906</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.648220960735586</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S21" t="n">
         <v>150.5056619006201</v>
@@ -24107,16 +24107,16 @@
         <v>224.5918076976439</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>124.9813050362731</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>109.4894745948071</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.1627053451514</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24147,31 +24147,31 @@
         <v>154.2278296009703</v>
       </c>
       <c r="I22" t="n">
-        <v>128.7075755443493</v>
+        <v>128.7075755443494</v>
       </c>
       <c r="J22" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K22" t="n">
-        <v>29.00696764310588</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L22" t="n">
-        <v>7.666252278545429</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M22" t="n">
-        <v>4.874073050119677</v>
+        <v>4.874073050119705</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>17.25253096319246</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P22" t="n">
-        <v>33.53567409585305</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.96390131304983</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R22" t="n">
         <v>135.9358563101673</v>
@@ -24189,7 +24189,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>283.1715907418832</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.788983988013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>249.6773067512163</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>276.1906097519054</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>318.81602910318</v>
+        <v>306.0702799235768</v>
       </c>
       <c r="H23" t="n">
         <v>319.1252930206376</v>
       </c>
       <c r="I23" t="n">
-        <v>133.6300223860147</v>
+        <v>26.70259638263269</v>
       </c>
       <c r="J23" t="n">
         <v>18.90415513835092</v>
@@ -24253,10 +24253,10 @@
         <v>16.20651604452291</v>
       </c>
       <c r="R23" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T23" t="n">
         <v>214.835839336413</v>
@@ -24265,7 +24265,7 @@
         <v>251.3291988183946</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>259.5488550355545</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58.4446996069628</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -24305,7 +24305,7 @@
         <v>100.8662920711142</v>
       </c>
       <c r="I24" t="n">
-        <v>62.824350431655</v>
+        <v>52.29357339712667</v>
       </c>
       <c r="J24" t="n">
         <v>29.79191335767906</v>
@@ -24332,7 +24332,7 @@
         <v>9.648220960735614</v>
       </c>
       <c r="R24" t="n">
-        <v>80.34626333461114</v>
+        <v>33.00372673083748</v>
       </c>
       <c r="S24" t="n">
         <v>150.5056619006201</v>
@@ -24341,19 +24341,19 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U24" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V24" t="n">
-        <v>124.9813050362731</v>
+        <v>137.7270542158763</v>
       </c>
       <c r="W24" t="n">
-        <v>155.8076699262211</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>96.74372541520398</v>
       </c>
     </row>
     <row r="25">
@@ -24375,19 +24375,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>143.2380352642722</v>
       </c>
       <c r="G25" t="n">
         <v>167.056575980339</v>
       </c>
       <c r="H25" t="n">
-        <v>151.306843455438</v>
+        <v>154.2278296009703</v>
       </c>
       <c r="I25" t="n">
         <v>128.7075755443494</v>
       </c>
       <c r="J25" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K25" t="n">
         <v>29.00696764310591</v>
@@ -24408,7 +24408,7 @@
         <v>33.53567409585308</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R25" t="n">
         <v>135.9358563101673</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.788983988013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.20651604452291</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T26" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U26" t="n">
         <v>251.3291988183946</v>
       </c>
       <c r="V26" t="n">
-        <v>221.6057955191373</v>
+        <v>275.7553710800775</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -24511,7 +24511,7 @@
         <v>263.9341731277873</v>
       </c>
       <c r="Y26" t="n">
-        <v>292.5053949274571</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24530,19 +24530,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>58.97277622050601</v>
       </c>
       <c r="G27" t="n">
-        <v>130.8424032593385</v>
+        <v>28.10216978438859</v>
       </c>
       <c r="H27" t="n">
         <v>100.8662920711142</v>
       </c>
       <c r="I27" t="n">
-        <v>62.824350431655</v>
+        <v>52.29357339712667</v>
       </c>
       <c r="J27" t="n">
         <v>29.79191335767906</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S27" t="n">
-        <v>150.5056619006201</v>
+        <v>43.57823589723802</v>
       </c>
       <c r="T27" t="n">
         <v>194.3775685333885</v>
       </c>
       <c r="U27" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>97.53420360509624</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24615,7 +24615,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H28" t="n">
         <v>154.2278296009703</v>
@@ -24657,7 +24657,7 @@
         <v>224.7732288424945</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0068333210768</v>
+        <v>283.0858471755444</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24691,7 +24691,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>300.3664374771588</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>306.0702799235768</v>
@@ -24727,19 +24727,19 @@
         <v>16.20651604452291</v>
       </c>
       <c r="R29" t="n">
-        <v>93.54238700471561</v>
+        <v>25.19731033681387</v>
       </c>
       <c r="S29" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T29" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U29" t="n">
-        <v>144.4017728150126</v>
+        <v>251.3291988183946</v>
       </c>
       <c r="V29" t="n">
-        <v>234.3515446987406</v>
+        <v>234.3515446987407</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71.19044878656592</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -24773,10 +24773,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.0295957877706</v>
+        <v>34.78678503172389</v>
       </c>
       <c r="H30" t="n">
-        <v>100.8662920711142</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>62.824350431655</v>
@@ -24812,16 +24812,16 @@
         <v>150.5056619006201</v>
       </c>
       <c r="T30" t="n">
-        <v>194.3775685333885</v>
+        <v>87.4501425300065</v>
       </c>
       <c r="U30" t="n">
         <v>117.6643816942618</v>
       </c>
       <c r="V30" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H31" t="n">
         <v>154.2278296009703</v>
@@ -24894,7 +24894,7 @@
         <v>224.7732288424945</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0068333210768</v>
+        <v>283.0858471755444</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>305.7412492121391</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24937,7 +24937,7 @@
         <v>319.1252930206376</v>
       </c>
       <c r="I32" t="n">
-        <v>133.6300223860147</v>
+        <v>132.9907325669517</v>
       </c>
       <c r="J32" t="n">
         <v>18.90415513835092</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R32" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T32" t="n">
         <v>214.835839336413</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W32" t="n">
-        <v>243.6026909971725</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>263.9341731277873</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.7596457478538</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>39.18499757126352</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G33" t="n">
-        <v>28.10216978438862</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H33" t="n">
         <v>100.8662920711142</v>
@@ -25052,16 +25052,16 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U33" t="n">
-        <v>224.5918076976439</v>
+        <v>130.410130873865</v>
       </c>
       <c r="V33" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>110.2799527846994</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H34" t="n">
         <v>154.2278296009703</v>
@@ -25098,7 +25098,7 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J34" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K34" t="n">
         <v>29.00696764310591</v>
@@ -25119,7 +25119,7 @@
         <v>33.53567409585308</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R34" t="n">
         <v>135.9358563101673</v>
@@ -25128,7 +25128,7 @@
         <v>207.8402631004476</v>
       </c>
       <c r="T34" t="n">
-        <v>224.7732288424945</v>
+        <v>221.8522426969622</v>
       </c>
       <c r="U34" t="n">
         <v>286.0068333210768</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>276.788983988013</v>
+        <v>305.7412492121391</v>
       </c>
       <c r="C35" t="n">
-        <v>260.0576696755606</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>288.9363589315086</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>16.20651604452291</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>93.54238700471561</v>
@@ -25207,16 +25207,16 @@
         <v>163.5472088943176</v>
       </c>
       <c r="T35" t="n">
-        <v>107.908413333031</v>
+        <v>214.835839336413</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>243.6026909971725</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25235,19 +25235,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>76.84390710362209</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>51.93074675086672</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G36" t="n">
-        <v>135.0295957877706</v>
+        <v>28.10216978438859</v>
       </c>
       <c r="H36" t="n">
         <v>100.8662920711142</v>
@@ -25289,13 +25289,13 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U36" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V36" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -25323,10 +25323,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>143.2380352642722</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H37" t="n">
         <v>154.2278296009703</v>
@@ -25335,7 +25335,7 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J37" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K37" t="n">
         <v>29.00696764310591</v>
@@ -25356,7 +25356,7 @@
         <v>33.53567409585308</v>
       </c>
       <c r="Q37" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R37" t="n">
         <v>135.9358563101673</v>
@@ -25393,16 +25393,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>272.8034188551638</v>
+        <v>260.0576696755606</v>
       </c>
       <c r="D38" t="n">
         <v>249.6773067512163</v>
       </c>
       <c r="E38" t="n">
-        <v>276.1906097519054</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>300.3664374771588</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>412.9977059269589</v>
@@ -25453,10 +25453,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>256.348440176776</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>263.9341731277873</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>58.44469960696279</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -25478,13 +25478,13 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>61.85175688339493</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F39" t="n">
         <v>36.57880608016725</v>
       </c>
       <c r="G39" t="n">
-        <v>28.10216978438859</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H39" t="n">
         <v>100.8662920711142</v>
@@ -25529,10 +25529,10 @@
         <v>224.5918076976439</v>
       </c>
       <c r="V39" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>155.8076699262212</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.056575980339</v>
+        <v>164.1355898348067</v>
       </c>
       <c r="H40" t="n">
         <v>154.2278296009703</v>
@@ -25572,13 +25572,13 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J40" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K40" t="n">
-        <v>29.00696764310591</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>7.666252278545457</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>4.874073050119705</v>
@@ -25587,13 +25587,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>17.25253096319248</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>33.53567409585308</v>
       </c>
       <c r="Q40" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R40" t="n">
         <v>135.9358563101673</v>
@@ -25614,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>223.2193737867769</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25633,13 +25633,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>262.4230559308195</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>276.1906097519054</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3664374771588</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>412.9977059269589</v>
@@ -25675,19 +25675,19 @@
         <v>16.20651604452291</v>
       </c>
       <c r="R41" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T41" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V41" t="n">
-        <v>221.6057955191373</v>
+        <v>327.8939317034561</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25709,16 +25709,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>64.09815792401895</v>
       </c>
       <c r="D42" t="n">
         <v>39.18499757126352</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>61.85175688339491</v>
       </c>
       <c r="F42" t="n">
-        <v>36.57880608016725</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.0295957877706</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S42" t="n">
         <v>150.5056619006201</v>
@@ -25763,16 +25763,16 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U42" t="n">
-        <v>220.4046151692118</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -25809,7 +25809,7 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J43" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K43" t="n">
         <v>29.00696764310591</v>
@@ -25830,7 +25830,7 @@
         <v>33.53567409585308</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R43" t="n">
         <v>135.9358563101673</v>
@@ -25842,13 +25842,13 @@
         <v>224.7732288424945</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0068333210768</v>
+        <v>283.0858471755444</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>283.1715907418832</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25870,7 +25870,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>355.9654429355351</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25912,25 +25912,25 @@
         <v>16.20651604452291</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S44" t="n">
-        <v>163.5472088943176</v>
+        <v>69.36553207053879</v>
       </c>
       <c r="T44" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U44" t="n">
         <v>144.4017728150126</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W44" t="n">
-        <v>243.6026909971725</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>263.9341731277873</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>58.44469960696279</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>64.09815792401895</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>51.93074675086665</v>
       </c>
       <c r="E45" t="n">
-        <v>49.10600770379179</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>36.57880608016725</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>135.0295957877706</v>
       </c>
       <c r="H45" t="n">
-        <v>87.03087858194647</v>
+        <v>100.8662920711142</v>
       </c>
       <c r="I45" t="n">
         <v>62.824350431655</v>
@@ -25991,7 +25991,7 @@
         <v>9.648220960735614</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S45" t="n">
         <v>150.5056619006201</v>
@@ -26046,10 +26046,10 @@
         <v>128.7075755443494</v>
       </c>
       <c r="J46" t="n">
-        <v>64.9265203547404</v>
+        <v>29.94482937910815</v>
       </c>
       <c r="K46" t="n">
-        <v>29.00696764310591</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>7.666252278545457</v>
@@ -26067,7 +26067,7 @@
         <v>33.53567409585308</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.96390131304985</v>
+        <v>10.00722460018832</v>
       </c>
       <c r="R46" t="n">
         <v>135.9358563101673</v>
@@ -26079,13 +26079,13 @@
         <v>224.7732288424945</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0068333210768</v>
+        <v>283.0858471755444</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>283.1715907418832</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>237030.5448018789</v>
+        <v>251072.1951478166</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>237030.5448018789</v>
+        <v>246616.4692503008</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>237030.5448018789</v>
+        <v>251323.6125214506</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353962.8701677263</v>
+        <v>358348.0446312564</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>353962.8701677264</v>
+        <v>368672.5653904962</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>353962.8701677264</v>
+        <v>369433.1402301475</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353962.8701677265</v>
+        <v>361019.0127107539</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353962.8701677264</v>
+        <v>372360.0660980827</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>353962.8701677264</v>
+        <v>364411.8923297529</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>353962.8701677264</v>
+        <v>363619.3460501343</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353962.8701677263</v>
+        <v>358348.0446312563</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353962.8701677264</v>
+        <v>358348.0446312564</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353962.8701677264</v>
+        <v>360645.2816189506</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353962.8701677265</v>
+        <v>358348.0446312564</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>353962.8701677265</v>
+        <v>359583.7414528526</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88305.49708305295</v>
+        <v>92063.12182351515</v>
       </c>
       <c r="C2" t="n">
-        <v>88305.49708305295</v>
+        <v>90870.74447065881</v>
       </c>
       <c r="D2" t="n">
-        <v>88305.49708305295</v>
+        <v>92130.40252913551</v>
       </c>
       <c r="E2" t="n">
-        <v>131868.5202585647</v>
+        <v>133042.0176502135</v>
       </c>
       <c r="F2" t="n">
-        <v>131868.5202585646</v>
+        <v>135804.9175717003</v>
       </c>
       <c r="G2" t="n">
-        <v>131868.5202585647</v>
+        <v>136008.4516837196</v>
       </c>
       <c r="H2" t="n">
-        <v>131868.5202585647</v>
+        <v>133756.7837559946</v>
       </c>
       <c r="I2" t="n">
-        <v>131868.5202585647</v>
+        <v>136791.7135357022</v>
       </c>
       <c r="J2" t="n">
-        <v>131868.5202585647</v>
+        <v>134664.7374568534</v>
       </c>
       <c r="K2" t="n">
-        <v>131868.5202585646</v>
+        <v>134452.647607378</v>
       </c>
       <c r="L2" t="n">
-        <v>131868.5202585647</v>
+        <v>133042.0176502135</v>
       </c>
       <c r="M2" t="n">
-        <v>131868.5202585647</v>
+        <v>133042.0176502136</v>
       </c>
       <c r="N2" t="n">
-        <v>131868.5202585647</v>
+        <v>133656.7712103007</v>
       </c>
       <c r="O2" t="n">
-        <v>131868.5202585647</v>
+        <v>133042.0176502136</v>
       </c>
       <c r="P2" t="n">
-        <v>131868.5202585646</v>
+        <v>133372.697081345</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>26646.74226974683</v>
+        <v>26646.74226974681</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3955.394463644415</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2700.260408006182</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4026.21625903426</v>
       </c>
       <c r="E4" t="n">
-        <v>77.58755151091455</v>
+        <v>1312.84796377284</v>
       </c>
       <c r="F4" t="n">
-        <v>77.58755151091458</v>
+        <v>4221.163670600992</v>
       </c>
       <c r="G4" t="n">
-        <v>77.58755151091464</v>
+        <v>4435.410104305567</v>
       </c>
       <c r="H4" t="n">
-        <v>77.58755151091468</v>
+        <v>2065.233338279207</v>
       </c>
       <c r="I4" t="n">
-        <v>77.58755151091459</v>
+        <v>5259.896264287332</v>
       </c>
       <c r="J4" t="n">
-        <v>77.58755151091459</v>
+        <v>3020.974076025404</v>
       </c>
       <c r="K4" t="n">
-        <v>77.58755151091459</v>
+        <v>2797.721602893404</v>
       </c>
       <c r="L4" t="n">
-        <v>77.58755151091459</v>
+        <v>1312.84796377284</v>
       </c>
       <c r="M4" t="n">
-        <v>77.58755151091459</v>
+        <v>1312.84796377284</v>
       </c>
       <c r="N4" t="n">
-        <v>77.58755151091461</v>
+        <v>1959.956974390966</v>
       </c>
       <c r="O4" t="n">
-        <v>77.58755151091461</v>
+        <v>1312.84796377284</v>
       </c>
       <c r="P4" t="n">
-        <v>77.58755151091464</v>
+        <v>1660.931575490111</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>40425.3999991759</v>
       </c>
       <c r="E5" t="n">
-        <v>16571.55677921347</v>
+        <v>16571.55677921348</v>
       </c>
       <c r="F5" t="n">
-        <v>16571.55677921347</v>
+        <v>16571.55677921348</v>
       </c>
       <c r="G5" t="n">
         <v>16571.55677921348</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252599.1896411635</v>
+        <v>-268299.5171153236</v>
       </c>
       <c r="C6" t="n">
-        <v>47880.09708387705</v>
+        <v>32179.76960971694</v>
       </c>
       <c r="D6" t="n">
-        <v>47880.09708387705</v>
+        <v>32179.76960971696</v>
       </c>
       <c r="E6" t="n">
-        <v>-37311.93760927388</v>
+        <v>-50719.47438998604</v>
       </c>
       <c r="F6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="G6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="H6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="I6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="J6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="K6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="L6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="M6" t="n">
-        <v>88572.63365809346</v>
+        <v>75165.09687738141</v>
       </c>
       <c r="N6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="O6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="P6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>311.8256880355916</v>
       </c>
       <c r="E3" t="n">
-        <v>461.9435448719195</v>
+        <v>461.9435448719196</v>
       </c>
       <c r="F3" t="n">
-        <v>461.9435448719195</v>
+        <v>461.9435448719196</v>
       </c>
       <c r="G3" t="n">
         <v>461.9435448719196</v>
       </c>
       <c r="H3" t="n">
-        <v>461.9435448719197</v>
+        <v>461.9435448719196</v>
       </c>
       <c r="I3" t="n">
         <v>461.9435448719196</v>
@@ -26807,7 +26807,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="H4" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="I4" t="n">
         <v>106.927426003382</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>1.253570605168206</v>
       </c>
       <c r="H5" t="n">
-        <v>12.83812996017889</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I5" t="n">
         <v>48.32828075574732</v>
@@ -31290,7 +31290,7 @@
         <v>106.3952381503951</v>
       </c>
       <c r="K5" t="n">
-        <v>159.4588818671653</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L5" t="n">
         <v>197.8228432750819</v>
@@ -31311,7 +31311,7 @@
         <v>135.3715226888582</v>
       </c>
       <c r="R5" t="n">
-        <v>78.74460452689742</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S5" t="n">
         <v>28.56574016527053</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H6" t="n">
         <v>6.477737406173327</v>
@@ -31439,7 +31439,7 @@
         <v>0.5623086177690995</v>
       </c>
       <c r="H7" t="n">
-        <v>4.999434801619816</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I7" t="n">
         <v>16.91015370527438</v>
@@ -31478,7 +31478,7 @@
         <v>2.402591366831606</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>1.857059476872037</v>
       </c>
       <c r="H11" t="n">
-        <v>19.01861036751575</v>
+        <v>19.01861036751576</v>
       </c>
       <c r="I11" t="n">
-        <v>71.59428548210927</v>
+        <v>71.59428548210929</v>
       </c>
       <c r="J11" t="n">
         <v>157.6156017751682</v>
       </c>
       <c r="K11" t="n">
-        <v>236.2249294311615</v>
+        <v>236.2249294311616</v>
       </c>
       <c r="L11" t="n">
-        <v>293.0579133964842</v>
+        <v>293.0579133964843</v>
       </c>
       <c r="M11" t="n">
         <v>326.0833948683073</v>
       </c>
       <c r="N11" t="n">
-        <v>330.6051630100581</v>
+        <v>330.6051630100582</v>
       </c>
       <c r="O11" t="n">
         <v>312.8936299338237</v>
       </c>
       <c r="P11" t="n">
-        <v>267.0474740985452</v>
+        <v>267.0474740985453</v>
       </c>
       <c r="Q11" t="n">
         <v>200.5415315830653</v>
@@ -31791,7 +31791,7 @@
         <v>42.31774282922159</v>
       </c>
       <c r="T11" t="n">
-        <v>8.129277860007345</v>
+        <v>8.129277860007347</v>
       </c>
       <c r="U11" t="n">
         <v>0.1485647581497629</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.993614417271676</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H12" t="n">
-        <v>9.596223451018556</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I12" t="n">
         <v>34.20997006834499</v>
       </c>
       <c r="J12" t="n">
-        <v>93.87477264232095</v>
+        <v>93.87477264232096</v>
       </c>
       <c r="K12" t="n">
-        <v>160.4469385995232</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L12" t="n">
         <v>215.7407093290979</v>
       </c>
       <c r="M12" t="n">
-        <v>245.5081090773498</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N12" t="n">
-        <v>234.9855952846319</v>
+        <v>181.331888025571</v>
       </c>
       <c r="O12" t="n">
-        <v>182.7524387660996</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P12" t="n">
         <v>189.7367741191852</v>
@@ -31864,7 +31864,7 @@
         <v>126.8340087731354</v>
       </c>
       <c r="R12" t="n">
-        <v>61.69125303025373</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S12" t="n">
         <v>18.45595200502432</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8330129497690351</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H13" t="n">
-        <v>7.406242407946517</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I13" t="n">
-        <v>25.05097125305426</v>
+        <v>25.05097125305427</v>
       </c>
       <c r="J13" t="n">
-        <v>58.89401554867078</v>
+        <v>58.89401554867079</v>
       </c>
       <c r="K13" t="n">
-        <v>96.78095907316606</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L13" t="n">
-        <v>123.8463070956618</v>
+        <v>123.8463070956619</v>
       </c>
       <c r="M13" t="n">
         <v>130.5785662987952</v>
@@ -31943,16 +31943,16 @@
         <v>69.75347527565985</v>
       </c>
       <c r="R13" t="n">
-        <v>37.45529135961497</v>
+        <v>37.45529135961498</v>
       </c>
       <c r="S13" t="n">
         <v>14.51714386097491</v>
       </c>
       <c r="T13" t="n">
-        <v>3.559237149013149</v>
+        <v>3.55923714901315</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04543706998740197</v>
+        <v>0.04543706998740198</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,19 +31992,19 @@
         <v>1.857059476872037</v>
       </c>
       <c r="H14" t="n">
-        <v>19.01861036751575</v>
+        <v>19.01861036751576</v>
       </c>
       <c r="I14" t="n">
-        <v>71.59428548210927</v>
+        <v>71.59428548210929</v>
       </c>
       <c r="J14" t="n">
         <v>157.6156017751682</v>
       </c>
       <c r="K14" t="n">
-        <v>236.2249294311615</v>
+        <v>236.2249294311616</v>
       </c>
       <c r="L14" t="n">
-        <v>293.0579133964842</v>
+        <v>293.0579133964843</v>
       </c>
       <c r="M14" t="n">
         <v>326.0833948683073</v>
@@ -32016,7 +32016,7 @@
         <v>312.8936299338237</v>
       </c>
       <c r="P14" t="n">
-        <v>267.0474740985452</v>
+        <v>267.0474740985453</v>
       </c>
       <c r="Q14" t="n">
         <v>200.5415315830653</v>
@@ -32028,7 +32028,7 @@
         <v>42.31774282922159</v>
       </c>
       <c r="T14" t="n">
-        <v>8.129277860007345</v>
+        <v>8.129277860007347</v>
       </c>
       <c r="U14" t="n">
         <v>0.1485647581497629</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.993614417271676</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H15" t="n">
-        <v>9.596223451018556</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I15" t="n">
         <v>34.20997006834499</v>
       </c>
       <c r="J15" t="n">
-        <v>93.87477264232095</v>
+        <v>93.87477264232096</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L15" t="n">
         <v>215.7407093290979</v>
@@ -32092,16 +32092,16 @@
         <v>234.985595284632</v>
       </c>
       <c r="O15" t="n">
-        <v>208.8039743656229</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P15" t="n">
-        <v>189.7367741191852</v>
+        <v>136.0830668601242</v>
       </c>
       <c r="Q15" t="n">
         <v>126.8340087731354</v>
       </c>
       <c r="R15" t="n">
-        <v>61.69125303025373</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S15" t="n">
         <v>18.45595200502432</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8330129497690351</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H16" t="n">
-        <v>7.406242407946517</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I16" t="n">
-        <v>25.05097125305426</v>
+        <v>25.05097125305427</v>
       </c>
       <c r="J16" t="n">
-        <v>58.89401554867078</v>
+        <v>58.89401554867079</v>
       </c>
       <c r="K16" t="n">
-        <v>96.78095907316606</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L16" t="n">
-        <v>123.8463070956618</v>
+        <v>123.8463070956619</v>
       </c>
       <c r="M16" t="n">
         <v>130.5785662987952</v>
@@ -32180,16 +32180,16 @@
         <v>69.75347527565985</v>
       </c>
       <c r="R16" t="n">
-        <v>37.45529135961497</v>
+        <v>37.45529135961498</v>
       </c>
       <c r="S16" t="n">
         <v>14.51714386097491</v>
       </c>
       <c r="T16" t="n">
-        <v>3.559237149013149</v>
+        <v>3.55923714901315</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04543706998740197</v>
+        <v>0.04543706998740198</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>293.0579133964843</v>
       </c>
       <c r="M17" t="n">
-        <v>326.0833948683074</v>
+        <v>326.0833948683073</v>
       </c>
       <c r="N17" t="n">
         <v>330.6051630100582</v>
@@ -32256,7 +32256,7 @@
         <v>267.0474740985453</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.5415315830654</v>
+        <v>200.5415315830653</v>
       </c>
       <c r="R17" t="n">
         <v>116.6535123640632</v>
@@ -32268,7 +32268,7 @@
         <v>8.129277860007347</v>
       </c>
       <c r="U17" t="n">
-        <v>0.148564758149763</v>
+        <v>0.1485647581497629</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9936144172716762</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H18" t="n">
-        <v>9.59622345101856</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I18" t="n">
-        <v>34.209970068345</v>
+        <v>34.20997006834499</v>
       </c>
       <c r="J18" t="n">
         <v>93.87477264232096</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L18" t="n">
-        <v>215.740709329098</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M18" t="n">
-        <v>217.9059374178121</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N18" t="n">
         <v>234.985595284632</v>
       </c>
       <c r="O18" t="n">
-        <v>236.4061460251606</v>
+        <v>182.7524387660996</v>
       </c>
       <c r="P18" t="n">
-        <v>189.7367741191853</v>
+        <v>189.7367741191852</v>
       </c>
       <c r="Q18" t="n">
         <v>126.8340087731354</v>
       </c>
       <c r="R18" t="n">
-        <v>61.69125303025375</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S18" t="n">
-        <v>18.45595200502433</v>
+        <v>18.45595200502432</v>
       </c>
       <c r="T18" t="n">
-        <v>4.004963374880132</v>
+        <v>4.004963374880131</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06536936955734715</v>
+        <v>0.06536936955734714</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8330129497690353</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H19" t="n">
-        <v>7.40624240794652</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I19" t="n">
         <v>25.05097125305427</v>
@@ -32396,7 +32396,7 @@
         <v>58.89401554867079</v>
       </c>
       <c r="K19" t="n">
-        <v>96.78095907316609</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L19" t="n">
         <v>123.8463070956619</v>
@@ -32414,7 +32414,7 @@
         <v>100.7491298520658</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.75347527565987</v>
+        <v>69.75347527565985</v>
       </c>
       <c r="R19" t="n">
         <v>37.45529135961498</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.857059476872038</v>
+        <v>1.857059476872037</v>
       </c>
       <c r="H20" t="n">
         <v>19.01861036751576</v>
       </c>
       <c r="I20" t="n">
-        <v>71.5942854821093</v>
+        <v>71.59428548210929</v>
       </c>
       <c r="J20" t="n">
         <v>157.6156017751682</v>
@@ -32481,31 +32481,31 @@
         <v>293.0579133964843</v>
       </c>
       <c r="M20" t="n">
-        <v>326.0833948683074</v>
+        <v>326.0833948683073</v>
       </c>
       <c r="N20" t="n">
-        <v>330.6051630100583</v>
+        <v>330.6051630100582</v>
       </c>
       <c r="O20" t="n">
-        <v>312.8936299338238</v>
+        <v>312.8936299338237</v>
       </c>
       <c r="P20" t="n">
         <v>267.0474740985453</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.5415315830654</v>
+        <v>200.5415315830653</v>
       </c>
       <c r="R20" t="n">
         <v>116.6535123640632</v>
       </c>
       <c r="S20" t="n">
-        <v>42.3177428292216</v>
+        <v>42.31774282922159</v>
       </c>
       <c r="T20" t="n">
-        <v>8.129277860007349</v>
+        <v>8.129277860007347</v>
       </c>
       <c r="U20" t="n">
-        <v>0.148564758149763</v>
+        <v>0.1485647581497629</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9936144172716763</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H21" t="n">
-        <v>9.59622345101856</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I21" t="n">
-        <v>34.209970068345</v>
+        <v>34.20997006834499</v>
       </c>
       <c r="J21" t="n">
-        <v>93.87477264232098</v>
+        <v>93.87477264232096</v>
       </c>
       <c r="K21" t="n">
         <v>160.4469385995233</v>
       </c>
       <c r="L21" t="n">
-        <v>215.740709329098</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M21" t="n">
-        <v>245.50810907735</v>
+        <v>191.8544018182889</v>
       </c>
       <c r="N21" t="n">
-        <v>181.331888025571</v>
+        <v>234.985595284632</v>
       </c>
       <c r="O21" t="n">
         <v>236.4061460251606</v>
       </c>
       <c r="P21" t="n">
-        <v>189.7367741191853</v>
+        <v>189.7367741191852</v>
       </c>
       <c r="Q21" t="n">
         <v>126.8340087731354</v>
       </c>
       <c r="R21" t="n">
-        <v>61.69125303025375</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S21" t="n">
-        <v>18.45595200502433</v>
+        <v>18.45595200502432</v>
       </c>
       <c r="T21" t="n">
-        <v>4.004963374880132</v>
+        <v>4.004963374880131</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06536936955734715</v>
+        <v>0.06536936955734714</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8330129497690354</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H22" t="n">
-        <v>7.406242407946521</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I22" t="n">
         <v>25.05097125305427</v>
       </c>
       <c r="J22" t="n">
-        <v>58.8940155486708</v>
+        <v>58.89401554867079</v>
       </c>
       <c r="K22" t="n">
-        <v>96.7809590731661</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L22" t="n">
         <v>123.8463070956619</v>
@@ -32645,13 +32645,13 @@
         <v>127.4736998496562</v>
       </c>
       <c r="O22" t="n">
-        <v>117.7425940273543</v>
+        <v>117.7425940273542</v>
       </c>
       <c r="P22" t="n">
         <v>100.7491298520658</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.75347527565987</v>
+        <v>69.75347527565985</v>
       </c>
       <c r="R22" t="n">
         <v>37.45529135961498</v>
@@ -33028,7 +33028,7 @@
         <v>93.87477264232096</v>
       </c>
       <c r="K27" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L27" t="n">
         <v>215.7407093290979</v>
@@ -33037,10 +33037,10 @@
         <v>245.5081090773499</v>
       </c>
       <c r="N27" t="n">
-        <v>234.985595284632</v>
+        <v>181.331888025571</v>
       </c>
       <c r="O27" t="n">
-        <v>208.8039743656228</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P27" t="n">
         <v>189.7367741191852</v>
@@ -33745,10 +33745,10 @@
         <v>215.7407093290979</v>
       </c>
       <c r="M36" t="n">
-        <v>245.5081090773499</v>
+        <v>191.8544018182889</v>
       </c>
       <c r="N36" t="n">
-        <v>181.331888025571</v>
+        <v>234.985595284632</v>
       </c>
       <c r="O36" t="n">
         <v>236.4061460251606</v>
@@ -33982,13 +33982,13 @@
         <v>215.7407093290979</v>
       </c>
       <c r="M39" t="n">
-        <v>191.8544018182889</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N39" t="n">
         <v>234.985595284632</v>
       </c>
       <c r="O39" t="n">
-        <v>236.4061460251606</v>
+        <v>182.7524387660996</v>
       </c>
       <c r="P39" t="n">
         <v>189.7367741191852</v>
@@ -34219,10 +34219,10 @@
         <v>215.7407093290979</v>
       </c>
       <c r="M42" t="n">
-        <v>191.8544018182889</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N42" t="n">
-        <v>234.985595284632</v>
+        <v>181.331888025571</v>
       </c>
       <c r="O42" t="n">
         <v>236.4061460251606</v>
@@ -34371,7 +34371,7 @@
         <v>157.6156017751682</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2249294311618</v>
+        <v>236.2249294311616</v>
       </c>
       <c r="L44" t="n">
         <v>293.0579133964843</v>
@@ -34380,7 +34380,7 @@
         <v>326.0833948683073</v>
       </c>
       <c r="N44" t="n">
-        <v>330.6051630100582</v>
+        <v>330.6051630100584</v>
       </c>
       <c r="O44" t="n">
         <v>312.8936299338237</v>
@@ -34450,13 +34450,13 @@
         <v>93.87477264232096</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L45" t="n">
-        <v>188.1385376695602</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M45" t="n">
-        <v>245.5081090773499</v>
+        <v>191.8544018182889</v>
       </c>
       <c r="N45" t="n">
         <v>234.985595284632</v>
@@ -35412,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>21.6373246623055</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L11" t="n">
-        <v>63.18565880074664</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M11" t="n">
         <v>101.4958174717164</v>
@@ -35427,7 +35427,7 @@
         <v>88.5478737976791</v>
       </c>
       <c r="P11" t="n">
-        <v>41.5953032371574</v>
+        <v>41.59530323715745</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.05153559952322</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L12" t="n">
-        <v>80.65018904372056</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M12" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="N12" t="n">
-        <v>106.927426003382</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O12" t="n">
-        <v>43.72110043276628</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P12" t="n">
         <v>59.11172689021325</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.980293996053788</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>21.6373246623055</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L14" t="n">
-        <v>63.18565880074664</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M14" t="n">
         <v>101.4958174717164</v>
@@ -35664,7 +35664,7 @@
         <v>88.5478737976791</v>
       </c>
       <c r="P14" t="n">
-        <v>41.5953032371574</v>
+        <v>41.59530323715745</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L15" t="n">
-        <v>80.65018904372056</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M15" t="n">
         <v>106.927426003382</v>
@@ -35740,10 +35740,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="O15" t="n">
-        <v>69.77263603228958</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P15" t="n">
-        <v>59.11172689021325</v>
+        <v>5.458019631152243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.980293996053788</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.63732466230556</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L17" t="n">
-        <v>63.18565880074675</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M17" t="n">
-        <v>101.4958174717165</v>
+        <v>101.4958174717164</v>
       </c>
       <c r="N17" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O17" t="n">
-        <v>88.54787379767916</v>
+        <v>88.5478737976791</v>
       </c>
       <c r="P17" t="n">
         <v>41.59530323715745</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L18" t="n">
-        <v>80.65018904372062</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M18" t="n">
-        <v>79.32525434384422</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N18" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O18" t="n">
-        <v>97.3748076918273</v>
+        <v>43.72110043276628</v>
       </c>
       <c r="P18" t="n">
-        <v>59.11172689021328</v>
+        <v>59.11172689021325</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.980293996053831</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>21.63732466230559</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L20" t="n">
-        <v>63.18565880074675</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M20" t="n">
-        <v>101.4958174717165</v>
+        <v>101.4958174717164</v>
       </c>
       <c r="N20" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="O20" t="n">
-        <v>88.54787379767922</v>
+        <v>88.5478737976791</v>
       </c>
       <c r="P20" t="n">
-        <v>41.59530323715751</v>
+        <v>41.59530323715745</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.05153559952328</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L21" t="n">
-        <v>80.65018904372064</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M21" t="n">
-        <v>106.9274260033821</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="N21" t="n">
-        <v>53.27371874432105</v>
+        <v>106.927426003382</v>
       </c>
       <c r="O21" t="n">
-        <v>97.37480769182733</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P21" t="n">
-        <v>59.1117268902133</v>
+        <v>59.11172689021325</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.980293996053845</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="N24" t="n">
-        <v>53.27371874432102</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O24" t="n">
         <v>97.37480769182727</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L27" t="n">
         <v>80.65018904372059</v>
@@ -36685,10 +36685,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="N27" t="n">
-        <v>106.927426003382</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O27" t="n">
-        <v>69.77263603228951</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P27" t="n">
         <v>59.11172689021325</v>
@@ -36922,7 +36922,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="N30" t="n">
-        <v>53.27371874432102</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O30" t="n">
         <v>97.37480769182727</v>
@@ -37159,7 +37159,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="N33" t="n">
-        <v>53.27371874432102</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O33" t="n">
         <v>97.37480769182727</v>
@@ -37393,10 +37393,10 @@
         <v>80.65018904372059</v>
       </c>
       <c r="M36" t="n">
+        <v>53.27371874432105</v>
+      </c>
+      <c r="N36" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="N36" t="n">
-        <v>53.27371874432102</v>
       </c>
       <c r="O36" t="n">
         <v>97.37480769182727</v>
@@ -37630,13 +37630,13 @@
         <v>80.65018904372059</v>
       </c>
       <c r="M39" t="n">
-        <v>53.27371874432105</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N39" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O39" t="n">
-        <v>97.37480769182727</v>
+        <v>43.72110043276628</v>
       </c>
       <c r="P39" t="n">
         <v>59.11172689021325</v>
@@ -37867,10 +37867,10 @@
         <v>80.65018904372059</v>
       </c>
       <c r="M42" t="n">
+        <v>106.927426003382</v>
+      </c>
+      <c r="N42" t="n">
         <v>53.27371874432105</v>
-      </c>
-      <c r="N42" t="n">
-        <v>106.927426003382</v>
       </c>
       <c r="O42" t="n">
         <v>97.37480769182727</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.63732466230578</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L44" t="n">
         <v>63.18565880074669</v>
@@ -38028,7 +38028,7 @@
         <v>101.4958174717164</v>
       </c>
       <c r="N44" t="n">
-        <v>106.927426003382</v>
+        <v>106.9274260033823</v>
       </c>
       <c r="O44" t="n">
         <v>88.5478737976791</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L45" t="n">
-        <v>53.04801738418286</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M45" t="n">
-        <v>106.927426003382</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="N45" t="n">
         <v>106.927426003382</v>
